--- a/annex/ticker_stocks.xlsx
+++ b/annex/ticker_stocks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://devinci-my.sharepoint.com/personal/thibault_le_squerent_edu_devinci_fr/Documents/Documents/éducation/ESILV/2020-2021/S8/pi2/diffusion_indexes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://devinci-my.sharepoint.com/personal/thibault_le_squerent_edu_devinci_fr/Documents/Documents/éducation/ESILV/2020-2021/S8/pi2/diffusion_indexes/annex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{32B88D9B-5997-4A55-84D1-2A975D5F3CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3D8F661-36CD-4202-B3C9-90C1B45424C3}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{32B88D9B-5997-4A55-84D1-2A975D5F3CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F14B7F89-BA95-4F54-9AE5-442EBA79DBA4}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{5F92E747-9B98-40F7-85C6-938196B1E081}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5F92E747-9B98-40F7-85C6-938196B1E081}"/>
   </bookViews>
   <sheets>
     <sheet name="CAC40" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1172">
   <si>
     <t>Accor</t>
   </si>
@@ -4012,8 +4012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D220E2-844E-40A3-A141-525C4E24FA63}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="A42:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4532,10 +4532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FB1B0C-2218-47D4-8963-D283DE8DCBD1}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4989,6 +4989,17 @@
       </c>
       <c r="C41" s="1" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
@@ -11906,6 +11917,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D5E3968327F484AA995A591EA850603" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="65d7e21495f06ba85f1248dd803050d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df1ebd21-298f-447d-a59d-e415769f81be" xmlns:ns4="f6f8d4a8-2cf1-48b7-9d05-4933d6248464" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd7c13181cc0c0d69822fc73e6e0f669" ns3:_="" ns4:_="">
     <xsd:import namespace="df1ebd21-298f-447d-a59d-e415769f81be"/>
@@ -12128,22 +12154,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE21770-1828-4440-AB98-7A96F9F85932}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6f8d4a8-2cf1-48b7-9d05-4933d6248464"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="df1ebd21-298f-447d-a59d-e415769f81be"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D349C4-E136-4E3F-AA6A-FC099B1D9DED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65F44767-1C6F-4F76-BDBC-7A10A6CA01B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12160,29 +12196,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D349C4-E136-4E3F-AA6A-FC099B1D9DED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE21770-1828-4440-AB98-7A96F9F85932}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6f8d4a8-2cf1-48b7-9d05-4933d6248464"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="df1ebd21-298f-447d-a59d-e415769f81be"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>